--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H2">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N2">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q2">
-        <v>69.89114178061233</v>
+        <v>40.097143914405</v>
       </c>
       <c r="R2">
-        <v>629.020276025511</v>
+        <v>360.874295229645</v>
       </c>
       <c r="S2">
-        <v>0.004212957083714827</v>
+        <v>0.004992063904898795</v>
       </c>
       <c r="T2">
-        <v>0.004212957083714827</v>
+        <v>0.004992063904898795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H3">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q3">
-        <v>11071.50561458251</v>
+        <v>4019.14021280786</v>
       </c>
       <c r="R3">
-        <v>99643.55053124262</v>
+        <v>36172.26191527073</v>
       </c>
       <c r="S3">
-        <v>0.6673775362371139</v>
+        <v>0.5003798980774142</v>
       </c>
       <c r="T3">
-        <v>0.6673775362371139</v>
+        <v>0.5003798980774141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H4">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P4">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q4">
-        <v>2330.702041570285</v>
+        <v>846.083507107695</v>
       </c>
       <c r="R4">
-        <v>20976.31837413257</v>
+        <v>7614.751563969255</v>
       </c>
       <c r="S4">
-        <v>0.1404920198168225</v>
+        <v>0.1053367527966283</v>
       </c>
       <c r="T4">
-        <v>0.1404920198168225</v>
+        <v>0.1053367527966283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N5">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q5">
-        <v>12.04644880165645</v>
+        <v>19.03811168875334</v>
       </c>
       <c r="R5">
-        <v>108.418039214908</v>
+        <v>171.34300519878</v>
       </c>
       <c r="S5">
-        <v>0.0007261459824458724</v>
+        <v>0.002370230417950397</v>
       </c>
       <c r="T5">
-        <v>0.0007261459824458724</v>
+        <v>0.002370230417950397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q6">
         <v>1908.286545982818</v>
@@ -818,10 +818,10 @@
         <v>17174.57891384536</v>
       </c>
       <c r="S6">
-        <v>0.1150293029536135</v>
+        <v>0.237580222839325</v>
       </c>
       <c r="T6">
-        <v>0.1150293029536135</v>
+        <v>0.2375802228393249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P7">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q7">
         <v>401.7201908623134</v>
@@ -880,10 +880,10 @@
         <v>3615.481717760821</v>
       </c>
       <c r="S7">
-        <v>0.02421522786216854</v>
+        <v>0.05001385806813936</v>
       </c>
       <c r="T7">
-        <v>0.02421522786216854</v>
+        <v>0.05001385806813936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J8">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N8">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q8">
-        <v>4.126498534209333</v>
+        <v>6.521485399660001</v>
       </c>
       <c r="R8">
-        <v>37.138486807884</v>
+        <v>58.69336859694</v>
       </c>
       <c r="S8">
-        <v>0.0002487405526326451</v>
+        <v>0.0008119199696482991</v>
       </c>
       <c r="T8">
-        <v>0.000248740552632645</v>
+        <v>0.0008119199696482991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J9">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q9">
         <v>653.6815757492534</v>
@@ -1004,10 +1004,10 @@
         <v>5883.13418174328</v>
       </c>
       <c r="S9">
-        <v>0.03940316833986281</v>
+        <v>0.08138285875326139</v>
       </c>
       <c r="T9">
-        <v>0.03940316833986281</v>
+        <v>0.08138285875326137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J10">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P10">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q10">
         <v>137.60883444154</v>
@@ -1066,10 +1066,10 @@
         <v>1238.47950997386</v>
       </c>
       <c r="S10">
-        <v>0.008294901171625237</v>
+        <v>0.01713219517273441</v>
       </c>
       <c r="T10">
-        <v>0.008294901171625237</v>
+        <v>0.01713219517273441</v>
       </c>
     </row>
   </sheetData>
